--- a/data/key_words.xlsx
+++ b/data/key_words.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\.vscode\InfoCompas_2.0\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,78 +24,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>МЧД</t>
+  </si>
+  <si>
+    <t>УКЭП</t>
+  </si>
+  <si>
+    <t>Удостоверяющий центр (УЦ)</t>
+  </si>
+  <si>
+    <t>СертиФИКАТ</t>
+  </si>
+  <si>
+    <t>Дельта</t>
+  </si>
+  <si>
+    <t>ЛК</t>
+  </si>
+  <si>
+    <t>Личный кабинет</t>
+  </si>
+  <si>
+    <t>Крипто</t>
+  </si>
+  <si>
+    <t>Программа</t>
+  </si>
+  <si>
+    <t>Допуск</t>
+  </si>
+  <si>
+    <t>Реестр</t>
+  </si>
+  <si>
+    <t>Отчетность</t>
+  </si>
+  <si>
+    <t>Инструкция</t>
+  </si>
+  <si>
+    <t>Руководство</t>
+  </si>
+  <si>
+    <t>Банк</t>
+  </si>
+  <si>
+    <t>Машиночитаемая доверенность</t>
+  </si>
+  <si>
+    <t>Доверенность</t>
+  </si>
+  <si>
+    <t>XSD</t>
+  </si>
+  <si>
+    <t>Полномочия</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>XBRL</t>
+  </si>
+  <si>
+    <t>REST-API</t>
+  </si>
+  <si>
+    <t>Методология</t>
+  </si>
+  <si>
+    <t>Методические материалы</t>
+  </si>
+  <si>
+    <t>еспп</t>
+  </si>
+  <si>
+    <t>зск</t>
+  </si>
+  <si>
+    <t>уфр</t>
+  </si>
+  <si>
+    <t>ключ</t>
+  </si>
   <si>
     <t>Ключевые слова</t>
-  </si>
-  <si>
-    <t>Банк России</t>
-  </si>
-  <si>
-    <t>МЧД</t>
-  </si>
-  <si>
-    <t>УКЭП</t>
-  </si>
-  <si>
-    <t>Удостоверяющий центр (УЦ)</t>
-  </si>
-  <si>
-    <t>СертиФИКАТ</t>
-  </si>
-  <si>
-    <t>Дельта</t>
-  </si>
-  <si>
-    <t>ЛК</t>
-  </si>
-  <si>
-    <t>Личный кабинет</t>
-  </si>
-  <si>
-    <t>Крипто</t>
-  </si>
-  <si>
-    <t>Программа</t>
-  </si>
-  <si>
-    <t>Допуск</t>
-  </si>
-  <si>
-    <t>Реестр</t>
-  </si>
-  <si>
-    <t>Отчетность</t>
-  </si>
-  <si>
-    <t>Инструкция</t>
-  </si>
-  <si>
-    <t>Руководство</t>
-  </si>
-  <si>
-    <t>Банк</t>
-  </si>
-  <si>
-    <t>Машиночитаемая доверенность</t>
-  </si>
-  <si>
-    <t>Доверенность</t>
-  </si>
-  <si>
-    <t>XSD</t>
-  </si>
-  <si>
-    <t>Полномочия</t>
-  </si>
-  <si>
-    <t>XML</t>
-  </si>
-  <si>
-    <t>XBRL</t>
-  </si>
-  <si>
-    <t>REST-API</t>
   </si>
 </sst>
 </file>
@@ -413,132 +428,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
